--- a/biology/Histoire de la zoologie et de la botanique/Iver_Mysterud/Iver_Mysterud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Iver_Mysterud/Iver_Mysterud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iver Mysterud (né le 4 juin 1966) est un biologiste et zoologiste norvégien.
 Il termine ses études de biologie en 1992 avec comme spécialité la zoologie, et obtient en 2005 son doctorat interdisciplinaire autour de l'homme et de l'évolution. Toute sa carrière scientifique est rattachée à l'Institut de biologie de l'Université d'Oslo, où il est le seul zoologue ; il s'y est spécialisé dans l'étude de l'homme sous une perspective évolutionniste.
